--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2569.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2569.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9875483637819197</v>
+        <v>0.9796509146690369</v>
       </c>
       <c r="B1">
-        <v>1.542178010486074</v>
+        <v>0.8403860330581665</v>
       </c>
       <c r="C1">
-        <v>3.398483738928581</v>
+        <v>2.443525552749634</v>
       </c>
       <c r="D1">
-        <v>2.094809526645743</v>
+        <v>5.228856086730957</v>
       </c>
       <c r="E1">
-        <v>0.7693087794379776</v>
+        <v>1.152986645698547</v>
       </c>
     </row>
   </sheetData>
